--- a/Tables/Sources/gameplay/DailySignin/DailySignin.xlsx
+++ b/Tables/Sources/gameplay/DailySignin/DailySignin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="25500" windowHeight="11540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>签到奖励内容</t>
+    <t>签到奖励类型</t>
+  </si>
+  <si>
+    <t>奖励ID</t>
+  </si>
+  <si>
+    <t>奖励数量</t>
   </si>
   <si>
     <t>A</t>
@@ -37,10 +43,16 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Reward</t>
+    <t>RewardType</t>
   </si>
   <si>
-    <t>Coin|200</t>
+    <t>RewardID</t>
+  </si>
+  <si>
+    <t>RewardCount</t>
+  </si>
+  <si>
+    <t>Coin</t>
   </si>
 </sst>
 </file>
@@ -48,10 +60,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -69,6 +81,142 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -76,142 +224,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -228,187 +240,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,9 +451,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,52 +490,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,7 +518,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,10 +552,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,16 +564,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,115 +582,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,107 +1048,175 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9:H10"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.4545454545455" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.0909090909091" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:2">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:2">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:2">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:2">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/DailySignin/DailySignin.xlsx
+++ b/Tables/Sources/gameplay/DailySignin/DailySignin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25500" windowHeight="11540"/>
+    <workbookView windowWidth="30710" windowHeight="11540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,18 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>签到奖励类型</t>
-  </si>
-  <si>
-    <t>奖励ID</t>
-  </si>
-  <si>
-    <t>奖励数量</t>
+    <t>签到奖励</t>
   </si>
   <si>
     <t>A</t>
@@ -43,16 +37,10 @@
     <t>Id</t>
   </si>
   <si>
-    <t>RewardType</t>
+    <t>Reward</t>
   </si>
   <si>
-    <t>RewardID</t>
-  </si>
-  <si>
-    <t>RewardCount</t>
-  </si>
-  <si>
-    <t>Coin</t>
+    <t>Coin|200</t>
   </si>
 </sst>
 </file>
@@ -60,9 +48,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -81,31 +69,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,27 +84,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,6 +122,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -158,15 +167,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,6 +177,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,40 +207,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -240,187 +228,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,12 +437,49 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -471,6 +496,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,64 +534,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,175 +1036,107 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.4545454545455" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.0909090909091" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
+    <row r="4" s="1" customFormat="1" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>200</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>200</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>200</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>200</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>200</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>200</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>200</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/DailySignin/DailySignin.xlsx
+++ b/Tables/Sources/gameplay/DailySignin/DailySignin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30710" windowHeight="11540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -25,9 +25,15 @@
     <t>签到奖励</t>
   </si>
   <si>
+    <t>说明</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -40,7 +46,46 @@
     <t>Reward</t>
   </si>
   <si>
-    <t>Coin|200</t>
+    <t>Item|1009|5</t>
+  </si>
+  <si>
+    <t>肉*5</t>
+  </si>
+  <si>
+    <t>Kongfu|2002|1</t>
+  </si>
+  <si>
+    <t>武功秘籍*1</t>
+  </si>
+  <si>
+    <t>Item|2001|1</t>
+  </si>
+  <si>
+    <t>银牌招募令*1</t>
+  </si>
+  <si>
+    <t>Arms|201|1</t>
+  </si>
+  <si>
+    <t>武器*1</t>
+  </si>
+  <si>
+    <t>Armor|201|1</t>
+  </si>
+  <si>
+    <t>铠甲*1</t>
+  </si>
+  <si>
+    <t>Medicine|101|1</t>
+  </si>
+  <si>
+    <t>赤胆壮气丸*1</t>
+  </si>
+  <si>
+    <t>Item|2002|1</t>
+  </si>
+  <si>
+    <t>金牌招募令*1</t>
   </si>
 </sst>
 </file>
@@ -69,6 +114,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -85,14 +144,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,62 +220,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,44 +253,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,19 +273,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,163 +411,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,35 +497,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,6 +517,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,25 +579,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +597,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,107 +1081,138 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.4545454545455" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:2">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:2">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:2">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/DailySignin/DailySignin.xlsx
+++ b/Tables/Sources/gameplay/DailySignin/DailySignin.xlsx
@@ -67,13 +67,13 @@
     <t>Arms|201|1</t>
   </si>
   <si>
-    <t>武器*1</t>
-  </si>
-  <si>
-    <t>Armor|201|1</t>
-  </si>
-  <si>
-    <t>铠甲*1</t>
+    <t>杀猪刀*1</t>
+  </si>
+  <si>
+    <t>Item|3001|1</t>
+  </si>
+  <si>
+    <t>孔雀石*1</t>
   </si>
   <si>
     <t>Medicine|101|1</t>
@@ -94,8 +94,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -114,6 +114,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -128,8 +129,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -137,14 +197,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,30 +236,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,67 +257,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -273,187 +273,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,17 +482,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,11 +535,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,17 +561,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,10 +585,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,133 +597,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1086,7 +1086,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/Tables/Sources/gameplay/DailySignin/DailySignin.xlsx
+++ b/Tables/Sources/gameplay/DailySignin/DailySignin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="31730" windowHeight="14830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>ID</t>
   </si>
@@ -64,7 +64,7 @@
     <t>银牌招募令*1</t>
   </si>
   <si>
-    <t>Arms|201|1</t>
+    <t>Arms|101|1</t>
   </si>
   <si>
     <t>杀猪刀*1</t>
@@ -93,9 +93,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -114,59 +114,76 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,6 +205,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -196,44 +243,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -242,19 +251,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -273,43 +273,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,139 +381,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,20 +484,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,8 +532,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -551,21 +557,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -579,16 +570,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,7 +597,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,124 +606,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1086,18 +1086,18 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="16" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.1272727272727" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:2">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>

--- a/Tables/Sources/gameplay/DailySignin/DailySignin.xlsx
+++ b/Tables/Sources/gameplay/DailySignin/DailySignin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31730" windowHeight="14830"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -46,16 +46,10 @@
     <t>Reward</t>
   </si>
   <si>
-    <t>Item|1009|5</t>
-  </si>
-  <si>
-    <t>肉*5</t>
-  </si>
-  <si>
-    <t>Kongfu|2002|1</t>
-  </si>
-  <si>
-    <t>武功秘籍*1</t>
+    <t>Food|50</t>
+  </si>
+  <si>
+    <t>食物*50</t>
   </si>
   <si>
     <t>Item|2001|1</t>
@@ -64,10 +58,10 @@
     <t>银牌招募令*1</t>
   </si>
   <si>
-    <t>Arms|101|1</t>
-  </si>
-  <si>
-    <t>杀猪刀*1</t>
+    <t>Medicine|101|1</t>
+  </si>
+  <si>
+    <t>赤胆壮气丸*1</t>
   </si>
   <si>
     <t>Item|3001|1</t>
@@ -76,10 +70,16 @@
     <t>孔雀石*1</t>
   </si>
   <si>
-    <t>Medicine|101|1</t>
-  </si>
-  <si>
-    <t>赤胆壮气丸*1</t>
+    <t>Medicine|102|1</t>
+  </si>
+  <si>
+    <t>莲花清神露*1</t>
+  </si>
+  <si>
+    <t>Item|3002|1</t>
+  </si>
+  <si>
+    <t>红玛瑙*1</t>
   </si>
   <si>
     <t>Item|2002|1</t>
@@ -94,8 +94,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -114,6 +114,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -122,14 +160,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,21 +198,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -166,16 +206,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,30 +215,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,45 +253,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,19 +273,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,150 +429,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -448,12 +454,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,15 +482,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -510,7 +501,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,11 +523,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,21 +560,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -579,16 +568,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,133 +597,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1086,18 +1086,18 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="16" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.1272727272727" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:3">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:3">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:3">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:2">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>

--- a/Tables/Sources/gameplay/DailySignin/DailySignin.xlsx
+++ b/Tables/Sources/gameplay/DailySignin/DailySignin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="22620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>ID</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Reward</t>
   </si>
   <si>
-    <t>Food|50</t>
+    <t>Food|1|50</t>
   </si>
   <si>
     <t>食物*50</t>
@@ -93,8 +93,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -114,17 +114,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,52 +144,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,6 +204,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -206,53 +250,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,31 +273,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,151 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,6 +482,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -497,11 +515,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,21 +554,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -562,15 +571,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -582,148 +582,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -738,54 +738,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1079,17 +1079,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="16" style="2" customWidth="1"/>
@@ -1097,7 +1097,7 @@
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="3" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:2">
+    <row r="4" s="1" customFormat="1" ht="12" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>

--- a/Tables/Sources/gameplay/DailySignin/DailySignin.xlsx
+++ b/Tables/Sources/gameplay/DailySignin/DailySignin.xlsx
@@ -46,7 +46,7 @@
     <t>Reward</t>
   </si>
   <si>
-    <t>Food|1|50</t>
+    <t>Food|50</t>
   </si>
   <si>
     <t>食物*50</t>
@@ -93,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -128,8 +128,123 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,121 +257,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -273,37 +273,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,145 +447,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,37 +495,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,7 +519,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,6 +539,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -579,148 +564,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1086,7 +1086,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
